--- a/result/gr50_06_simulated/details.xlsx
+++ b/result/gr50_06_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.422656774520874</v>
+        <v>0.3897807598114014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>235.1510160022372</v>
+        <v>241.0084293445489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008327645368576019</v>
+        <v>0.00814999997897378</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00662895716955976</v>
+        <v>0.006757097845831176</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00631665104061575</v>
+        <v>0.006255734650482539</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00631665104061575</v>
+        <v>0.005978640047716665</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005804474659859608</v>
+        <v>0.005684635904777876</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005495516490021553</v>
+        <v>0.005684575056065472</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005447436593467836</v>
+        <v>0.005598107917332675</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00519435097420078</v>
+        <v>0.005299269240548413</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005135150181620304</v>
+        <v>0.005267900616459141</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005135150181620304</v>
+        <v>0.005267900616459141</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005013248180925496</v>
+        <v>0.00525324927168444</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004915402043174338</v>
+        <v>0.005150371800978338</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004815688981998745</v>
+        <v>0.005032099166538388</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004808678615536017</v>
+        <v>0.004977470807231996</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004780111241526368</v>
+        <v>0.004858849401079368</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004731329266204815</v>
+        <v>0.00483122908839799</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004689332950954877</v>
+        <v>0.004772651970255197</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004633789196588026</v>
+        <v>0.004746535171009339</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004583840467879866</v>
+        <v>0.004726611766995576</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004583840467879866</v>
+        <v>0.004698020065195883</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4322943687438965</v>
+        <v>0.3749868869781494</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>235.8399734590184</v>
+        <v>243.1964959708384</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008110525494351687</v>
+        <v>0.008537041040833346</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006947163936778766</v>
+        <v>0.006541561275571047</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006205746019998639</v>
+        <v>0.006396265637847665</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00585731435953564</v>
+        <v>0.005930994332067452</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005742412028704993</v>
+        <v>0.005896673940110808</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0056347604668064</v>
+        <v>0.005518176093702497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005494449749917957</v>
+        <v>0.005356391950690717</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005494449749917957</v>
+        <v>0.005356391950690717</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005074953783953186</v>
+        <v>0.005275702546874299</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005074953783953186</v>
+        <v>0.005275702546874299</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005013682762230379</v>
+        <v>0.005275702546874299</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004895000701015777</v>
+        <v>0.005109974219006521</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004848882740660267</v>
+        <v>0.005072359058979637</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004808671098223648</v>
+        <v>0.004960225145065587</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004800031660749355</v>
+        <v>0.00493687020071461</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004710117668004719</v>
+        <v>0.004896641494617308</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00469872746328971</v>
+        <v>0.004825035400355833</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004658743101407127</v>
+        <v>0.004801243518996363</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004641700281753956</v>
+        <v>0.004769929660607041</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004597270437797629</v>
+        <v>0.004740672436078721</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4266974925994873</v>
+        <v>0.3750152587890625</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>238.443715453499</v>
+        <v>242.3591194254695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008453026868441434</v>
+        <v>0.008034942080859841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006883199969694602</v>
+        <v>0.006855174150669663</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005924413515450355</v>
+        <v>0.00637786138301151</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005924413515450355</v>
+        <v>0.006251224435706999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005811262504307519</v>
+        <v>0.005779802418773928</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005751082162780688</v>
+        <v>0.005615643082687577</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005583193999347507</v>
+        <v>0.005553469060280929</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005333619956241715</v>
+        <v>0.005429948705476556</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005250642147379567</v>
+        <v>0.005371603514635828</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005153349380941709</v>
+        <v>0.00525042319174799</v>
       </c>
       <c r="P4" t="n">
-        <v>0.004954854687215199</v>
+        <v>0.005061122399970292</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00485302007789908</v>
+        <v>0.004969103671680987</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00485302007789908</v>
+        <v>0.004950807933768671</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004795681772174909</v>
+        <v>0.004914848423611251</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004795681772174909</v>
+        <v>0.004898174143763114</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004739626328452028</v>
+        <v>0.004794656410900557</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004723087976166155</v>
+        <v>0.004751212617280174</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004684822452603179</v>
+        <v>0.004751212617280174</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004674984560942778</v>
+        <v>0.004732726138521165</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0046480256423684</v>
+        <v>0.004724349306539366</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3755722045898438</v>
+        <v>0.4851164817810059</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>253.4111874364407</v>
+        <v>239.3437704036314</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008381211333656529</v>
+        <v>0.008133045010140953</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00640047759059967</v>
+        <v>0.006639386608884319</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00640047759059967</v>
+        <v>0.005688398794631863</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005999178031811007</v>
+        <v>0.005688398794631863</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005941779996585103</v>
+        <v>0.005688398794631863</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005744712177179926</v>
+        <v>0.005527067381111986</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005570322525155738</v>
+        <v>0.005527067381111986</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005551646578620796</v>
+        <v>0.005327437206778037</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005441950421056254</v>
+        <v>0.005271873463982655</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005255058371461552</v>
+        <v>0.005193699501860978</v>
       </c>
       <c r="P5" t="n">
-        <v>0.005192857395221947</v>
+        <v>0.00518870898396405</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005192857395221947</v>
+        <v>0.005083920554015383</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005192857395221947</v>
+        <v>0.00490652338490779</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005117709458123679</v>
+        <v>0.004861242829666563</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005086477661779139</v>
+        <v>0.004831561639743968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005070191519099329</v>
+        <v>0.004794038677504409</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005019975183072497</v>
+        <v>0.00474511683968673</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004984864611824359</v>
+        <v>0.004707572323758403</v>
       </c>
       <c r="X5" t="n">
-        <v>0.004958255021957708</v>
+        <v>0.004671818993633278</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00493978922878052</v>
+        <v>0.004665570573170202</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3749904632568359</v>
+        <v>0.3595192432403564</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>243.6217191592987</v>
+        <v>242.4663760195272</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008506485391548298</v>
+        <v>0.00816586172934892</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00685260824679736</v>
+        <v>0.006687867723263997</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006444052384098216</v>
+        <v>0.006362155963223285</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006077960427143077</v>
+        <v>0.006266715067506568</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006077960427143077</v>
+        <v>0.005902381103526024</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005925833732523781</v>
+        <v>0.005902381103526024</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005784111154593558</v>
+        <v>0.005197819504103579</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00555038728651077</v>
+        <v>0.005197819504103579</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005293733219929675</v>
+        <v>0.005197819504103579</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005109503861860704</v>
+        <v>0.005048946741824951</v>
       </c>
       <c r="P6" t="n">
-        <v>0.005109503861860704</v>
+        <v>0.004987508421328176</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004963782846615939</v>
+        <v>0.004987508421328176</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004963782846615939</v>
+        <v>0.00498699478402533</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00495213455133012</v>
+        <v>0.004964430229732361</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004878775989583839</v>
+        <v>0.00492478077097446</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004831285455724386</v>
+        <v>0.004899229308722642</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004819134508429784</v>
+        <v>0.004809940817309257</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004781217718947432</v>
+        <v>0.004753425636822975</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004759604223170179</v>
+        <v>0.004726440078353354</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004748961387120831</v>
+        <v>0.004726440078353354</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4006106853485107</v>
+        <v>0.3906009197235107</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>241.1738138922447</v>
+        <v>240.9955944865906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008434324971568433</v>
+        <v>0.008184182300238355</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006841728110990217</v>
+        <v>0.007234584370562798</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006568081628622349</v>
+        <v>0.006544502147698771</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005918483566417731</v>
+        <v>0.006286897058565648</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005776449283874323</v>
+        <v>0.005799016665886701</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005666791108816401</v>
+        <v>0.005799016665886701</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005612293122877979</v>
+        <v>0.005799016665886701</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005318965599688748</v>
+        <v>0.005615953751728501</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005140975297993659</v>
+        <v>0.005485799520823714</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005140975297993659</v>
+        <v>0.005369327052601477</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004877014736181545</v>
+        <v>0.0051517472257698</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004877014736181545</v>
+        <v>0.004892962476787694</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004877014736181545</v>
+        <v>0.004892962476787694</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00479572816622522</v>
+        <v>0.004892962476787694</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00479572816622522</v>
+        <v>0.004752660867629155</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00479572816622522</v>
+        <v>0.004752660867629155</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004762362188758825</v>
+        <v>0.004721567659416479</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00474303001469127</v>
+        <v>0.004721567659416479</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004735865891779411</v>
+        <v>0.004698011542235934</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004701243935521337</v>
+        <v>0.004697769873032953</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5258018970489502</v>
+        <v>0.375037670135498</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>243.6139112004275</v>
+        <v>247.0097872746501</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008175738756847626</v>
+        <v>0.008052843894278601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006867881300043584</v>
+        <v>0.006870566186579535</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00633911245576961</v>
+        <v>0.005964125860644779</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005879190794505375</v>
+        <v>0.005616461236999806</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005802448948948491</v>
+        <v>0.005616461236999806</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005777693086258106</v>
+        <v>0.005516914915963665</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005625160434333205</v>
+        <v>0.005516914915963665</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005603921581600816</v>
+        <v>0.005426002392460753</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005334642957371571</v>
+        <v>0.005426002392460753</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005294619933909337</v>
+        <v>0.005293750545715702</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005226606701649395</v>
+        <v>0.005282849900755415</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005091479451017632</v>
+        <v>0.005141507275631957</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005038675897711313</v>
+        <v>0.005049141290239549</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005034768227447982</v>
+        <v>0.004996897224102059</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00500571725518782</v>
+        <v>0.004996897224102059</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004928245041132521</v>
+        <v>0.004960033490837797</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004860363132227089</v>
+        <v>0.004896057374006767</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004798411030159199</v>
+        <v>0.004873931665982855</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00477444026103156</v>
+        <v>0.00482079851533992</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004748809185193518</v>
+        <v>0.004815005599895712</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4738161563873291</v>
+        <v>0.4374630451202393</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>245.4026474700295</v>
+        <v>238.1654002635314</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0084468707287138</v>
+        <v>0.008002071430929755</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006786604152602678</v>
+        <v>0.006774340716937335</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006256098108382994</v>
+        <v>0.005937020190302925</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005686619885299447</v>
+        <v>0.005937020190302925</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005651797982382988</v>
+        <v>0.005937020190302925</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005538823990919713</v>
+        <v>0.005530727479320784</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005340989803821267</v>
+        <v>0.005291225092628611</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005340989803821267</v>
+        <v>0.005086456959976542</v>
       </c>
       <c r="N9" t="n">
-        <v>0.005340989803821267</v>
+        <v>0.005086456959976542</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005297249977334786</v>
+        <v>0.005086456959976542</v>
       </c>
       <c r="P9" t="n">
-        <v>0.005193359770051919</v>
+        <v>0.005075980086399603</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.005193359770051919</v>
+        <v>0.004914367461619457</v>
       </c>
       <c r="R9" t="n">
-        <v>0.005132842114601702</v>
+        <v>0.004908741667936125</v>
       </c>
       <c r="S9" t="n">
-        <v>0.005051852709210271</v>
+        <v>0.004819093201887816</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004970259318567671</v>
+        <v>0.00478253231579279</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004929158075165441</v>
+        <v>0.004730070007545897</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004875570772226169</v>
+        <v>0.00472692041430743</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00480890481052675</v>
+        <v>0.004678645825660935</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004786776568246769</v>
+        <v>0.004654335157475679</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004783677338597065</v>
+        <v>0.004642600395000611</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4319913387298584</v>
+        <v>0.578150749206543</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>241.4982869606556</v>
+        <v>242.3299165268945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00802203558487271</v>
+        <v>0.008537041040833346</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007151949979615642</v>
+        <v>0.006754188838317523</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006155159781318354</v>
+        <v>0.005978629942973778</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005968952380757698</v>
+        <v>0.005875066728381533</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00560436944514622</v>
+        <v>0.005678723423180558</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00560436944514622</v>
+        <v>0.005486174977076796</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005375474960200038</v>
+        <v>0.005435576610622861</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005330669580342793</v>
+        <v>0.005414632404476274</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005128865201285518</v>
+        <v>0.005344385784891604</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005128865201285518</v>
+        <v>0.005107680234120164</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00504109266188511</v>
+        <v>0.005061248014491872</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004912728985558533</v>
+        <v>0.005040686011735978</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004831789590207654</v>
+        <v>0.004974121204686099</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004831789590207654</v>
+        <v>0.004971773064760526</v>
       </c>
       <c r="T10" t="n">
-        <v>0.00480269095760285</v>
+        <v>0.004853685569947312</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00480269095760285</v>
+        <v>0.004803575652806197</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004741339591897453</v>
+        <v>0.004786118641304089</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004728294812144138</v>
+        <v>0.004747052430725833</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00472519807292385</v>
+        <v>0.004747052430725833</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004707568946601473</v>
+        <v>0.004723780049257202</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4311037063598633</v>
+        <v>0.4062588214874268</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>247.1752912101983</v>
+        <v>239.9601500253921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008092752940376997</v>
+        <v>0.008276527517561002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006660280379037925</v>
+        <v>0.006981194037130389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00649340005074213</v>
+        <v>0.006321667997540679</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006131522590635974</v>
+        <v>0.006098897532874562</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005870530866434359</v>
+        <v>0.005700851469481202</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005539871914355841</v>
+        <v>0.005507073656197064</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005539871914355841</v>
+        <v>0.005373432844486482</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005456779974265407</v>
+        <v>0.005373432844486482</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00542354472416512</v>
+        <v>0.00536664176229867</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005407258210343463</v>
+        <v>0.005359028083044446</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005110829564226993</v>
+        <v>0.005225607691886818</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005039505039910817</v>
+        <v>0.005209519000942576</v>
       </c>
       <c r="R11" t="n">
-        <v>0.005039505039910817</v>
+        <v>0.005064045562738466</v>
       </c>
       <c r="S11" t="n">
-        <v>0.005039505039910817</v>
+        <v>0.004852148839826481</v>
       </c>
       <c r="T11" t="n">
-        <v>0.005000241031845403</v>
+        <v>0.004852148839826481</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004954494504335951</v>
+        <v>0.00477596950239993</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004895481114233182</v>
+        <v>0.004728757774879893</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004850494222782958</v>
+        <v>0.004728757774879893</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004843725953658285</v>
+        <v>0.004677585770475478</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004818231797469753</v>
+        <v>0.004677585770475478</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_06_simulated/details.xlsx
+++ b/result/gr50_06_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3897807598114014</v>
+        <v>0.6659359931945801</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0084293445489</v>
+        <v>256.0928999514053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00814999997897378</v>
+        <v>0.007032443523326081</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006757097845831176</v>
+        <v>0.006783430450829687</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006255734650482539</v>
+        <v>0.006474159709730734</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005978640047716665</v>
+        <v>0.005950171742866093</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005684635904777876</v>
+        <v>0.005950171742866093</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005684575056065472</v>
+        <v>0.005922025132729625</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005598107917332675</v>
+        <v>0.00564876393746221</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005299269240548413</v>
+        <v>0.00564876393746221</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005267900616459141</v>
+        <v>0.005442130296274736</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005267900616459141</v>
+        <v>0.005256475974481298</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00525324927168444</v>
+        <v>0.005256475974481298</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005150371800978338</v>
+        <v>0.005256475974481298</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005032099166538388</v>
+        <v>0.005229287383972085</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004977470807231996</v>
+        <v>0.005184028522673567</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004858849401079368</v>
+        <v>0.00516040457227762</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00483122908839799</v>
+        <v>0.005123348650963838</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004772651970255197</v>
+        <v>0.005036594366590248</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004746535171009339</v>
+        <v>0.005036594366590248</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004726611766995576</v>
+        <v>0.005012193982238953</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004698020065195883</v>
+        <v>0.004992064326538115</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3749868869781494</v>
+        <v>0.8569977283477783</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>243.1964959708384</v>
+        <v>255.5170934523812</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008537041040833346</v>
+        <v>0.007081895806242496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006541561275571047</v>
+        <v>0.006327455916786053</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006396265637847665</v>
+        <v>0.006097451413930315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005930994332067452</v>
+        <v>0.006097451413930315</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005896673940110808</v>
+        <v>0.006008958446964809</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005518176093702497</v>
+        <v>0.005932570280577505</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005356391950690717</v>
+        <v>0.005634578308541413</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005356391950690717</v>
+        <v>0.005624364626148472</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005275702546874299</v>
+        <v>0.005412309996340338</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005275702546874299</v>
+        <v>0.005412309996340338</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005275702546874299</v>
+        <v>0.005328884184363396</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005109974219006521</v>
+        <v>0.005186904657414585</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005072359058979637</v>
+        <v>0.005135670864199436</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004960225145065587</v>
+        <v>0.005061836404251042</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00493687020071461</v>
+        <v>0.005061836404251042</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004896641494617308</v>
+        <v>0.005061836404251042</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004825035400355833</v>
+        <v>0.004998571819327564</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004801243518996363</v>
+        <v>0.004998571819327564</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004769929660607041</v>
+        <v>0.004992888889777368</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004740672436078721</v>
+        <v>0.004980840028311524</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3750152587890625</v>
+        <v>0.9159939289093018</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>242.3591194254695</v>
+        <v>256.4854172430896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008034942080859841</v>
+        <v>0.0073219678944489</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006855174150669663</v>
+        <v>0.006556643341068973</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00637786138301151</v>
+        <v>0.00609967631307222</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006251224435706999</v>
+        <v>0.00604630999794328</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005779802418773928</v>
+        <v>0.005852989121622069</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005615643082687577</v>
+        <v>0.005816090946170862</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005553469060280929</v>
+        <v>0.005733659724177356</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005429948705476556</v>
+        <v>0.005647068763278086</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005371603514635828</v>
+        <v>0.005337413191583359</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00525042319174799</v>
+        <v>0.005289565053378724</v>
       </c>
       <c r="P4" t="n">
-        <v>0.005061122399970292</v>
+        <v>0.005289565053378724</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004969103671680987</v>
+        <v>0.005273674216377078</v>
       </c>
       <c r="R4" t="n">
-        <v>0.004950807933768671</v>
+        <v>0.005219019832679973</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004914848423611251</v>
+        <v>0.005219019832679973</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004898174143763114</v>
+        <v>0.005130417540501484</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004794656410900557</v>
+        <v>0.005071791721611961</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004751212617280174</v>
+        <v>0.005071791721611961</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004751212617280174</v>
+        <v>0.005034409150629245</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004732726138521165</v>
+        <v>0.005024283830554944</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004724349306539366</v>
+        <v>0.00499971573573274</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4851164817810059</v>
+        <v>0.7849998474121094</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>239.3437704036314</v>
+        <v>267.5803483547861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008133045010140953</v>
+        <v>0.007486353350393142</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006639386608884319</v>
+        <v>0.006351103317569703</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005688398794631863</v>
+        <v>0.006335741669135153</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005688398794631863</v>
+        <v>0.006093752126787336</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005688398794631863</v>
+        <v>0.006061433561310789</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005527067381111986</v>
+        <v>0.006020543586300189</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005527067381111986</v>
+        <v>0.006020543586300189</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005327437206778037</v>
+        <v>0.005897494833714598</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005271873463982655</v>
+        <v>0.005866717293662665</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005193699501860978</v>
+        <v>0.005720222348196935</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00518870898396405</v>
+        <v>0.005720222348196935</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005083920554015383</v>
+        <v>0.005599674086144204</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00490652338490779</v>
+        <v>0.005453884060557241</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004861242829666563</v>
+        <v>0.005389324888215448</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004831561639743968</v>
+        <v>0.005385956433841336</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004794038677504409</v>
+        <v>0.005347666516843152</v>
       </c>
       <c r="V5" t="n">
-        <v>0.00474511683968673</v>
+        <v>0.005347666516843152</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004707572323758403</v>
+        <v>0.005259560575071121</v>
       </c>
       <c r="X5" t="n">
-        <v>0.004671818993633278</v>
+        <v>0.005242049179430244</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004665570573170202</v>
+        <v>0.005215991195999728</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3595192432403564</v>
+        <v>0.7859978675842285</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>242.4663760195272</v>
+        <v>260.2497147454833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00816586172934892</v>
+        <v>0.007403844270407595</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006687867723263997</v>
+        <v>0.006427717238517362</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006362155963223285</v>
+        <v>0.006427717238517362</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006266715067506568</v>
+        <v>0.006224734913735801</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005902381103526024</v>
+        <v>0.005945923442596344</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005902381103526024</v>
+        <v>0.005945923442596344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005197819504103579</v>
+        <v>0.005749836103082327</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005197819504103579</v>
+        <v>0.005696897106285865</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005197819504103579</v>
+        <v>0.005643435606415573</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005048946741824951</v>
+        <v>0.005472900252861876</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004987508421328176</v>
+        <v>0.005439817593585005</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004987508421328176</v>
+        <v>0.005370126879223351</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00498699478402533</v>
+        <v>0.005364682069529199</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004964430229732361</v>
+        <v>0.005333050028311915</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00492478077097446</v>
+        <v>0.005148625743973507</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004899229308722642</v>
+        <v>0.005148625743973507</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004809940817309257</v>
+        <v>0.005135552355175774</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004753425636822975</v>
+        <v>0.00512772606758932</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004726440078353354</v>
+        <v>0.005087794799642102</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004726440078353354</v>
+        <v>0.005073093854687782</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3906009197235107</v>
+        <v>0.793992280960083</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>240.9955944865906</v>
+        <v>265.8791439196666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008184182300238355</v>
+        <v>0.007421967774258326</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007234584370562798</v>
+        <v>0.006671704039495718</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006544502147698771</v>
+        <v>0.006429937046541276</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006286897058565648</v>
+        <v>0.006401503361879551</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005799016665886701</v>
+        <v>0.00577805443705925</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005799016665886701</v>
+        <v>0.00577805443705925</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005799016665886701</v>
+        <v>0.00577805443705925</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005615953751728501</v>
+        <v>0.00577805443705925</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005485799520823714</v>
+        <v>0.005755870272946709</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005369327052601477</v>
+        <v>0.005713637858736713</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0051517472257698</v>
+        <v>0.005635567739202413</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004892962476787694</v>
+        <v>0.005495666250457179</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004892962476787694</v>
+        <v>0.00545477309040326</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004892962476787694</v>
+        <v>0.005293673378196934</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004752660867629155</v>
+        <v>0.005275641820053687</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004752660867629155</v>
+        <v>0.005275641820053687</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004721567659416479</v>
+        <v>0.005222732130278123</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004721567659416479</v>
+        <v>0.005199816786593904</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004698011542235934</v>
+        <v>0.005182829316172838</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004697769873032953</v>
+        <v>0.005182829316172838</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.375037670135498</v>
+        <v>0.8070001602172852</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>247.0097872746501</v>
+        <v>263.7722736083288</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008052843894278601</v>
+        <v>0.007490561769204342</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006870566186579535</v>
+        <v>0.006484432836190194</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005964125860644779</v>
+        <v>0.00613197924777284</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005616461236999806</v>
+        <v>0.006062214963209294</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005616461236999806</v>
+        <v>0.006062214963209294</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005516914915963665</v>
+        <v>0.005912678506296744</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005516914915963665</v>
+        <v>0.005423562433509244</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005426002392460753</v>
+        <v>0.005374424008866455</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005426002392460753</v>
+        <v>0.005374424008866455</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005293750545715702</v>
+        <v>0.005373220289775895</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005282849900755415</v>
+        <v>0.005263467639606513</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005141507275631957</v>
+        <v>0.005263467639606513</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005049141290239549</v>
+        <v>0.005263467639606513</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004996897224102059</v>
+        <v>0.005263467639606513</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004996897224102059</v>
+        <v>0.005236132538354075</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004960033490837797</v>
+        <v>0.005194149552503465</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004896057374006767</v>
+        <v>0.005163375876228869</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004873931665982855</v>
+        <v>0.005163375876228869</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00482079851533992</v>
+        <v>0.005154773248188156</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004815005599895712</v>
+        <v>0.005141759719460598</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4374630451202393</v>
+        <v>0.7019977569580078</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>238.1654002635314</v>
+        <v>253.8378651168732</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008002071430929755</v>
+        <v>0.00735617755529799</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006774340716937335</v>
+        <v>0.006360479978485533</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005937020190302925</v>
+        <v>0.00615620542904446</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005937020190302925</v>
+        <v>0.005948897210727538</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005937020190302925</v>
+        <v>0.005776401591559044</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005530727479320784</v>
+        <v>0.005489265868975556</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005291225092628611</v>
+        <v>0.005489265868975556</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005086456959976542</v>
+        <v>0.005397742013480422</v>
       </c>
       <c r="N9" t="n">
-        <v>0.005086456959976542</v>
+        <v>0.005350943602394113</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005086456959976542</v>
+        <v>0.005350943602394113</v>
       </c>
       <c r="P9" t="n">
-        <v>0.005075980086399603</v>
+        <v>0.005250149608096518</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004914367461619457</v>
+        <v>0.005175130531738884</v>
       </c>
       <c r="R9" t="n">
-        <v>0.004908741667936125</v>
+        <v>0.005175130531738884</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004819093201887816</v>
+        <v>0.005100857896939994</v>
       </c>
       <c r="T9" t="n">
-        <v>0.00478253231579279</v>
+        <v>0.005074982563896766</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004730070007545897</v>
+        <v>0.005044837611496995</v>
       </c>
       <c r="V9" t="n">
-        <v>0.00472692041430743</v>
+        <v>0.005036218784536709</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004678645825660935</v>
+        <v>0.004992303382959573</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004654335157475679</v>
+        <v>0.004969398306123173</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004642600395000611</v>
+        <v>0.004948106532492654</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.578150749206543</v>
+        <v>0.7949802875518799</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>242.3299165268945</v>
+        <v>257.3475159033242</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008537041040833346</v>
+        <v>0.007025550910566343</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006754188838317523</v>
+        <v>0.006569124012019112</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005978629942973778</v>
+        <v>0.006378595821856168</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005875066728381533</v>
+        <v>0.006058313738248416</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005678723423180558</v>
+        <v>0.005598021288323221</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005486174977076796</v>
+        <v>0.005598021288323221</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005435576610622861</v>
+        <v>0.005495130997239496</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005414632404476274</v>
+        <v>0.005385475261446648</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005344385784891604</v>
+        <v>0.005385475261446648</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005107680234120164</v>
+        <v>0.005305062349539582</v>
       </c>
       <c r="P10" t="n">
-        <v>0.005061248014491872</v>
+        <v>0.005305062349539582</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005040686011735978</v>
+        <v>0.005257357412179951</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004974121204686099</v>
+        <v>0.00525715317440522</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004971773064760526</v>
+        <v>0.005224268284806636</v>
       </c>
       <c r="T10" t="n">
-        <v>0.004853685569947312</v>
+        <v>0.00515173135752197</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004803575652806197</v>
+        <v>0.00515173135752197</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004786118641304089</v>
+        <v>0.00511612895881275</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004747052430725833</v>
+        <v>0.005051176026043828</v>
       </c>
       <c r="X10" t="n">
-        <v>0.004747052430725833</v>
+        <v>0.005040913059806078</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004723780049257202</v>
+        <v>0.005016520777842575</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4062588214874268</v>
+        <v>0.7430274486541748</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>239.9601500253921</v>
+        <v>263.0978521399502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008276527517561002</v>
+        <v>0.007213681725092166</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006981194037130389</v>
+        <v>0.006395097112607309</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006321667997540679</v>
+        <v>0.006381199415738899</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006098897532874562</v>
+        <v>0.006178138722840889</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005700851469481202</v>
+        <v>0.005936587801741579</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005507073656197064</v>
+        <v>0.005936587801741579</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005373432844486482</v>
+        <v>0.005936587801741579</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005373432844486482</v>
+        <v>0.005757621510997638</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00536664176229867</v>
+        <v>0.005724808862069464</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005359028083044446</v>
+        <v>0.005590992112839693</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005225607691886818</v>
+        <v>0.005590992112839693</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005209519000942576</v>
+        <v>0.005473955577130587</v>
       </c>
       <c r="R11" t="n">
-        <v>0.005064045562738466</v>
+        <v>0.005444397725931758</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004852148839826481</v>
+        <v>0.00532282333466068</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004852148839826481</v>
+        <v>0.00525424208816154</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00477596950239993</v>
+        <v>0.00522117490343951</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004728757774879893</v>
+        <v>0.005176866429845576</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004728757774879893</v>
+        <v>0.005176866429845576</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004677585770475478</v>
+        <v>0.005134067571658415</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004677585770475478</v>
+        <v>0.005128613102143277</v>
       </c>
     </row>
   </sheetData>
